--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="30">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -54,6 +54,9 @@
     <t>枚举</t>
   </si>
   <si>
+    <t>猜年龄</t>
+  </si>
+  <si>
     <t>排它平方数</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
   </si>
   <si>
     <t>错误票据</t>
+  </si>
+  <si>
+    <t>核桃的数量</t>
   </si>
   <si>
     <t>买不到的数目</t>
@@ -107,9 +113,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -122,14 +128,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,13 +191,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,15 +210,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,16 +248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,52 +270,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,6 +277,180 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,181 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,11 +474,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,21 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,30 +571,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:Y111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1297,7 +1303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1305,6 +1311,12 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1313,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1324,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1335,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1346,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1354,15 +1366,18 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1370,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1378,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1386,12 +1401,12 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1657,7 +1672,7 @@
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1923,7 +1938,7 @@
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2189,7 +2204,7 @@
     </row>
     <row r="65" spans="2:25">
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2455,7 +2470,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2721,7 +2736,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21600" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="40">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -106,6 +106,36 @@
   </si>
   <si>
     <t>2019年第十届</t>
+  </si>
+  <si>
+    <t>2020年第十一届</t>
+  </si>
+  <si>
+    <t>7月省赛</t>
+  </si>
+  <si>
+    <t>10月省赛</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>门牌制作</t>
+  </si>
+  <si>
+    <t>迭代</t>
+  </si>
+  <si>
+    <t>寻找 2020</t>
+  </si>
+  <si>
+    <t>迭代+check</t>
+  </si>
+  <si>
+    <t>阶乘约数</t>
+  </si>
+  <si>
+    <t>数论（约数个数）</t>
   </si>
 </sst>
 </file>
@@ -113,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -134,7 +164,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -142,8 +185,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,77 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,21 +300,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,7 +310,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +400,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,133 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +501,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,81 +597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,100 +621,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,37 +750,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,15 +1109,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y111"/>
+  <dimension ref="A1:AQ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="AN119" sqref="AN119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="25" width="13.7777777777778" customWidth="1"/>
+    <col min="1" max="16384" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25">
@@ -3000,8 +3033,436 @@
         <v>10</v>
       </c>
     </row>
+    <row r="113" spans="2:43">
+      <c r="B113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
+      <c r="AN113" s="1"/>
+      <c r="AO113" s="1"/>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+    </row>
+    <row r="114" spans="2:43">
+      <c r="B114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AJ114" s="1"/>
+      <c r="AK114" s="1"/>
+      <c r="AL114" s="1"/>
+      <c r="AM114" s="1"/>
+      <c r="AN114" s="1"/>
+      <c r="AO114" s="1"/>
+      <c r="AP114" s="1"/>
+      <c r="AQ114" s="1"/>
+    </row>
+    <row r="115" spans="2:43">
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AJ115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK115" s="1"/>
+      <c r="AL115" s="1"/>
+      <c r="AM115" s="1"/>
+      <c r="AN115" s="1"/>
+      <c r="AO115" s="1"/>
+      <c r="AP115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ115" s="2"/>
+    </row>
+    <row r="116" spans="2:41">
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116" s="1"/>
+      <c r="P116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA116" s="1"/>
+      <c r="AD116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM116" s="1"/>
+      <c r="AN116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO116" s="1"/>
+    </row>
+    <row r="117" spans="2:43">
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" t="s">
+        <v>9</v>
+      </c>
+      <c r="L117" t="s">
+        <v>8</v>
+      </c>
+      <c r="M117" t="s">
+        <v>9</v>
+      </c>
+      <c r="N117" t="s">
+        <v>8</v>
+      </c>
+      <c r="O117" t="s">
+        <v>9</v>
+      </c>
+      <c r="P117" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>9</v>
+      </c>
+      <c r="R117" t="s">
+        <v>8</v>
+      </c>
+      <c r="S117" t="s">
+        <v>9</v>
+      </c>
+      <c r="T117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U117" t="s">
+        <v>9</v>
+      </c>
+      <c r="V117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W117" t="s">
+        <v>9</v>
+      </c>
+      <c r="X117" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="X118" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="X119" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:39">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="164">
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:Y2"/>
@@ -3135,6 +3596,37 @@
     <mergeCell ref="T100:U100"/>
     <mergeCell ref="V100:W100"/>
     <mergeCell ref="X100:Y100"/>
+    <mergeCell ref="B113:AQ113"/>
+    <mergeCell ref="B114:O114"/>
+    <mergeCell ref="P114:AC114"/>
+    <mergeCell ref="AD114:AQ114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:U115"/>
+    <mergeCell ref="V115:AA115"/>
+    <mergeCell ref="AB115:AC115"/>
+    <mergeCell ref="AD115:AI115"/>
+    <mergeCell ref="AJ115:AO115"/>
+    <mergeCell ref="AP115:AQ115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="R116:S116"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="Z116:AA116"/>
+    <mergeCell ref="AD116:AE116"/>
+    <mergeCell ref="AF116:AG116"/>
+    <mergeCell ref="AH116:AI116"/>
+    <mergeCell ref="AJ116:AK116"/>
+    <mergeCell ref="AL116:AM116"/>
+    <mergeCell ref="AN116:AO116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="44">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -132,10 +132,22 @@
     <t>迭代+check</t>
   </si>
   <si>
+    <t>蛇形填数</t>
+  </si>
+  <si>
+    <t>找规律</t>
+  </si>
+  <si>
     <t>阶乘约数</t>
   </si>
   <si>
     <t>数论（约数个数）</t>
+  </si>
+  <si>
+    <t>七段码</t>
+  </si>
+  <si>
+    <t>并查集</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="AN119" sqref="AN119"/>
+    <sheetView tabSelected="1" topLeftCell="V106" workbookViewId="0">
+      <selection activeCell="Y122" sqref="Y122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -3419,16 +3431,28 @@
       <c r="A120">
         <v>3</v>
       </c>
+      <c r="X120" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>39</v>
+      </c>
       <c r="AL120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM120" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121">
         <v>4</v>
+      </c>
+      <c r="X121" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="54">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -120,10 +120,19 @@
     <t>Python</t>
   </si>
   <si>
+    <t>跑步训练</t>
+  </si>
+  <si>
+    <t>迭代</t>
+  </si>
+  <si>
     <t>门牌制作</t>
   </si>
   <si>
-    <t>迭代</t>
+    <t>合并检测</t>
+  </si>
+  <si>
+    <t>数学函数</t>
   </si>
   <si>
     <t>寻找 2020</t>
@@ -138,6 +147,12 @@
     <t>找规律</t>
   </si>
   <si>
+    <t>跑步锻炼</t>
+  </si>
+  <si>
+    <t>日期迭代</t>
+  </si>
+  <si>
     <t>阶乘约数</t>
   </si>
   <si>
@@ -148,6 +163,21 @@
   </si>
   <si>
     <t>并查集</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>成绩统计</t>
+  </si>
+  <si>
+    <t>迭代计算</t>
+  </si>
+  <si>
+    <t>单词分析</t>
+  </si>
+  <si>
+    <t>迭代统计</t>
   </si>
 </sst>
 </file>
@@ -170,26 +200,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -205,13 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,17 +239,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,11 +261,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,7 +299,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,23 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +352,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,13 +484,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,157 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,11 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,17 +596,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,26 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,142 +663,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,8 +1150,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V106" workbookViewId="0">
-      <selection activeCell="Y122" sqref="Y122"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -3158,10 +3185,10 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
-      <c r="N115" s="2" t="s">
+      <c r="N115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O115" s="2"/>
+      <c r="O115" s="1"/>
       <c r="P115" s="1" t="s">
         <v>3</v>
       </c>
@@ -3178,10 +3205,10 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
-      <c r="AB115" s="2" t="s">
+      <c r="AB115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC115" s="2"/>
+      <c r="AC115" s="1"/>
       <c r="AD115" s="1" t="s">
         <v>3</v>
       </c>
@@ -3198,10 +3225,10 @@
       <c r="AM115" s="1"/>
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
-      <c r="AP115" s="2" t="s">
+      <c r="AP115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AQ115" s="2"/>
+      <c r="AQ115" s="1"/>
     </row>
     <row r="116" spans="2:41">
       <c r="B116" s="1" t="s">
@@ -3405,26 +3432,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:29">
       <c r="A118">
         <v>1</v>
       </c>
+      <c r="B118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" t="s">
+        <v>35</v>
+      </c>
       <c r="X118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y118" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="AB118" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119">
         <v>2</v>
       </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
       <c r="X119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Y119" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:39">
@@ -3432,42 +3483,72 @@
         <v>3</v>
       </c>
       <c r="X120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y120" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>44</v>
       </c>
       <c r="AL120" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM120" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121">
         <v>4</v>
       </c>
       <c r="X121" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC121" t="s">
         <v>42</v>
       </c>
-      <c r="Y121" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="X122" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
       <c r="A123">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="AB123" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
       <c r="A124">
         <v>7</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10115"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="58">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -90,6 +90,9 @@
     <t>大臣的旅费</t>
   </si>
   <si>
+    <t>最短路径</t>
+  </si>
+  <si>
     <t>2014年第五届</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t>迭代+check</t>
   </si>
   <si>
+    <t>分配口罩</t>
+  </si>
+  <si>
     <t>蛇形填数</t>
   </si>
   <si>
@@ -157,6 +163,12 @@
   </si>
   <si>
     <t>数论（约数个数）</t>
+  </si>
+  <si>
+    <t>矩阵</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
   <si>
     <t>七段码</t>
@@ -200,6 +212,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -207,15 +226,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +256,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,8 +294,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,60 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +364,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,37 +442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,19 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,67 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,31 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,17 +627,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,145 +663,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -1468,17 +1480,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1744,7 +1759,7 @@
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2010,7 +2025,7 @@
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2276,7 +2291,7 @@
     </row>
     <row r="65" spans="2:25">
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2542,7 +2557,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2808,7 +2823,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3074,7 +3089,7 @@
     </row>
     <row r="113" spans="2:43">
       <c r="B113" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3120,7 +3135,7 @@
     </row>
     <row r="114" spans="2:43">
       <c r="B114" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3136,7 +3151,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -3186,7 +3201,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O115" s="1"/>
       <c r="P115" s="1" t="s">
@@ -3206,7 +3221,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC115" s="1"/>
       <c r="AD115" s="1" t="s">
@@ -3226,7 +3241,7 @@
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
       <c r="AP115" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ115" s="1"/>
     </row>
@@ -3437,22 +3452,22 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y118" t="s">
         <v>36</v>
       </c>
-      <c r="Y118" t="s">
-        <v>35</v>
-      </c>
       <c r="AB118" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC118" t="s">
         <v>36</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -3460,62 +3475,74 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y119" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB119" t="s">
         <v>40</v>
       </c>
-      <c r="AB119" t="s">
-        <v>39</v>
-      </c>
       <c r="AC119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:39">
       <c r="A120">
         <v>3</v>
       </c>
+      <c r="B120" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
       <c r="X120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AM120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:29">
       <c r="A121">
         <v>4</v>
       </c>
+      <c r="B121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" t="s">
+        <v>50</v>
+      </c>
       <c r="X121" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Y121" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AB121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -3523,10 +3550,10 @@
         <v>5</v>
       </c>
       <c r="X122" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AB122" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -3534,10 +3561,10 @@
         <v>6</v>
       </c>
       <c r="AB123" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AC123" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -3545,10 +3572,10 @@
         <v>7</v>
       </c>
       <c r="AB124" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AC124" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="62">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -96,6 +96,12 @@
     <t>2014年第五届</t>
   </si>
   <si>
+    <t>年龄巧合</t>
+  </si>
+  <si>
+    <t>迭代</t>
+  </si>
+  <si>
     <t>2015年第六届</t>
   </si>
   <si>
@@ -114,6 +120,12 @@
     <t>2020年第十一届</t>
   </si>
   <si>
+    <t>模拟赛1</t>
+  </si>
+  <si>
+    <t>模拟赛2</t>
+  </si>
+  <si>
     <t>7月省赛</t>
   </si>
   <si>
@@ -126,9 +138,6 @@
     <t>跑步训练</t>
   </si>
   <si>
-    <t>迭代</t>
-  </si>
-  <si>
     <t>门牌制作</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
   </si>
   <si>
     <t>迭代统计</t>
+  </si>
+  <si>
+    <t>序列计数</t>
   </si>
 </sst>
 </file>
@@ -197,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -226,21 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,9 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +262,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,36 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,7 +354,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,19 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,19 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,55 +472,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,43 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,21 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,6 +594,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,30 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -646,15 +667,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,151 +675,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ127"/>
+  <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -1707,9 +1722,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1759,7 +1780,7 @@
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2025,7 +2046,7 @@
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2291,7 +2312,7 @@
     </row>
     <row r="65" spans="2:25">
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2557,7 +2578,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2823,7 +2844,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3087,55 +3108,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:43">
-      <c r="B113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="1"/>
-      <c r="AA113" s="1"/>
-      <c r="AB113" s="1"/>
-      <c r="AC113" s="1"/>
-      <c r="AD113" s="1"/>
-      <c r="AE113" s="1"/>
-      <c r="AF113" s="1"/>
-      <c r="AG113" s="1"/>
-      <c r="AH113" s="1"/>
-      <c r="AI113" s="1"/>
-      <c r="AJ113" s="1"/>
-      <c r="AK113" s="1"/>
-      <c r="AL113" s="1"/>
-      <c r="AM113" s="1"/>
-      <c r="AN113" s="1"/>
-      <c r="AO113" s="1"/>
-      <c r="AP113" s="1"/>
-      <c r="AQ113" s="1"/>
-    </row>
-    <row r="114" spans="2:43">
+    <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3150,9 +3125,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
-      <c r="P114" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -3166,9 +3139,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
-      <c r="AD114" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
@@ -3182,419 +3153,504 @@
       <c r="AO114" s="1"/>
       <c r="AP114" s="1"/>
       <c r="AQ114" s="1"/>
-    </row>
-    <row r="115" spans="2:43">
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="AR114" s="1"/>
+      <c r="AS114" s="1"/>
+      <c r="AT114" s="1"/>
+      <c r="AU114" s="1"/>
+    </row>
+    <row r="115" spans="2:47">
+      <c r="B115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G115" s="1"/>
-      <c r="H115" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
-      <c r="N115" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
+      <c r="T115" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U115" s="1"/>
-      <c r="V115" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V115" s="1"/>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
-      <c r="AB115" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
-      <c r="AD115" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
-      <c r="AH115" s="1"/>
+      <c r="AH115" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AI115" s="1"/>
-      <c r="AJ115" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AJ115" s="1"/>
       <c r="AK115" s="1"/>
       <c r="AL115" s="1"/>
       <c r="AM115" s="1"/>
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
-      <c r="AP115" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AP115" s="1"/>
       <c r="AQ115" s="1"/>
-    </row>
-    <row r="116" spans="2:41">
-      <c r="B116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="1"/>
+      <c r="AR115" s="1"/>
+      <c r="AS115" s="1"/>
+      <c r="AT115" s="1"/>
+      <c r="AU115" s="1"/>
+    </row>
+    <row r="116" spans="2:47">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G116" s="1"/>
-      <c r="H116" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M116" s="1"/>
-      <c r="P116" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U116" s="1"/>
-      <c r="V116" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="V116" s="1"/>
       <c r="W116" s="1"/>
-      <c r="X116" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA116" s="1"/>
-      <c r="AD116" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI116" s="1"/>
-      <c r="AJ116" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AJ116" s="1"/>
       <c r="AK116" s="1"/>
-      <c r="AL116" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
       <c r="AN116" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO116" s="1"/>
-    </row>
-    <row r="117" spans="2:43">
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" t="s">
-        <v>8</v>
-      </c>
-      <c r="I117" t="s">
-        <v>9</v>
-      </c>
-      <c r="J117" t="s">
-        <v>8</v>
-      </c>
-      <c r="K117" t="s">
-        <v>9</v>
-      </c>
-      <c r="L117" t="s">
-        <v>8</v>
-      </c>
-      <c r="M117" t="s">
-        <v>9</v>
-      </c>
-      <c r="N117" t="s">
-        <v>8</v>
-      </c>
-      <c r="O117" t="s">
-        <v>9</v>
-      </c>
-      <c r="P117" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>9</v>
-      </c>
-      <c r="R117" t="s">
-        <v>8</v>
-      </c>
-      <c r="S117" t="s">
-        <v>9</v>
-      </c>
-      <c r="T117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U117" t="s">
-        <v>9</v>
-      </c>
-      <c r="V117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W117" t="s">
-        <v>9</v>
-      </c>
-      <c r="X117" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO117" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP117" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29">
-      <c r="A118">
+      <c r="AP116" s="1"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="1"/>
+      <c r="AS116" s="1"/>
+      <c r="AT116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU116" s="1"/>
+    </row>
+    <row r="117" spans="2:45">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q117" s="1"/>
+      <c r="T117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE117" s="1"/>
+      <c r="AH117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS117" s="1"/>
+    </row>
+    <row r="118" spans="2:47">
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" t="s">
+        <v>9</v>
+      </c>
+      <c r="J118" t="s">
+        <v>8</v>
+      </c>
+      <c r="K118" t="s">
+        <v>9</v>
+      </c>
+      <c r="L118" t="s">
+        <v>8</v>
+      </c>
+      <c r="M118" t="s">
+        <v>9</v>
+      </c>
+      <c r="N118" t="s">
+        <v>8</v>
+      </c>
+      <c r="O118" t="s">
+        <v>9</v>
+      </c>
+      <c r="P118" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>9</v>
+      </c>
+      <c r="R118" t="s">
+        <v>8</v>
+      </c>
+      <c r="S118" t="s">
+        <v>9</v>
+      </c>
+      <c r="T118" t="s">
+        <v>8</v>
+      </c>
+      <c r="U118" t="s">
+        <v>9</v>
+      </c>
+      <c r="V118" t="s">
+        <v>8</v>
+      </c>
+      <c r="W118" t="s">
+        <v>9</v>
+      </c>
+      <c r="X118" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS118" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
+      <c r="A119">
         <v>1</v>
       </c>
-      <c r="B118" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" t="s">
-        <v>36</v>
-      </c>
-      <c r="X118" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB118" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29">
-      <c r="A119">
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>38</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="F119" t="s">
         <v>39</v>
       </c>
-      <c r="X119" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y119" t="s">
-        <v>41</v>
+      <c r="G119" t="s">
+        <v>27</v>
       </c>
       <c r="AB119" t="s">
         <v>40</v>
       </c>
       <c r="AC119" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="120" spans="1:39">
-      <c r="A120">
+      <c r="G120" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:43">
+      <c r="A121">
         <v>3</v>
       </c>
-      <c r="B120" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="F121" t="s">
+        <v>45</v>
+      </c>
+      <c r="G121" t="s">
         <v>15</v>
       </c>
-      <c r="X120" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB120" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC120" t="s">
+      <c r="AB121" t="s">
         <v>46</v>
       </c>
-      <c r="AL120" t="s">
+      <c r="AC121" t="s">
         <v>47</v>
       </c>
-      <c r="AM120" t="s">
+      <c r="AF121" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="121" spans="1:29">
-      <c r="A121">
+      <c r="AG121" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
+      <c r="A122">
         <v>4</v>
       </c>
-      <c r="B121" t="s">
-        <v>49</v>
-      </c>
-      <c r="C121" t="s">
-        <v>50</v>
-      </c>
-      <c r="X121" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y121" t="s">
+      <c r="F122" t="s">
         <v>52</v>
       </c>
-      <c r="AB121" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC121" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28">
-      <c r="A122">
-        <v>5</v>
-      </c>
-      <c r="X122" t="s">
+      <c r="G122" t="s">
         <v>53</v>
       </c>
       <c r="AB122" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29">
+        <v>54</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29">
+        <v>56</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124">
-        <v>7</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC124" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF124" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="AG124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="166">
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:Y2"/>
@@ -3728,37 +3784,39 @@
     <mergeCell ref="T100:U100"/>
     <mergeCell ref="V100:W100"/>
     <mergeCell ref="X100:Y100"/>
-    <mergeCell ref="B113:AQ113"/>
-    <mergeCell ref="B114:O114"/>
-    <mergeCell ref="P114:AC114"/>
-    <mergeCell ref="AD114:AQ114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="H115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:U115"/>
-    <mergeCell ref="V115:AA115"/>
-    <mergeCell ref="AB115:AC115"/>
-    <mergeCell ref="AD115:AI115"/>
-    <mergeCell ref="AJ115:AO115"/>
-    <mergeCell ref="AP115:AQ115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:M116"/>
-    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B114:AU114"/>
+    <mergeCell ref="F115:S115"/>
+    <mergeCell ref="T115:AG115"/>
+    <mergeCell ref="AH115:AU115"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="L116:Q116"/>
     <mergeCell ref="R116:S116"/>
-    <mergeCell ref="T116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="Z116:AA116"/>
-    <mergeCell ref="AD116:AE116"/>
+    <mergeCell ref="T116:Y116"/>
+    <mergeCell ref="Z116:AE116"/>
     <mergeCell ref="AF116:AG116"/>
-    <mergeCell ref="AH116:AI116"/>
-    <mergeCell ref="AJ116:AK116"/>
-    <mergeCell ref="AL116:AM116"/>
-    <mergeCell ref="AN116:AO116"/>
+    <mergeCell ref="AH116:AM116"/>
+    <mergeCell ref="AN116:AS116"/>
+    <mergeCell ref="AT116:AU116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="T117:U117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Y117"/>
+    <mergeCell ref="Z117:AA117"/>
+    <mergeCell ref="AB117:AC117"/>
+    <mergeCell ref="AD117:AE117"/>
+    <mergeCell ref="AH117:AI117"/>
+    <mergeCell ref="AJ117:AK117"/>
+    <mergeCell ref="AL117:AM117"/>
+    <mergeCell ref="AN117:AO117"/>
+    <mergeCell ref="AP117:AQ117"/>
+    <mergeCell ref="AR117:AS117"/>
+    <mergeCell ref="B115:C117"/>
+    <mergeCell ref="D115:E117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="66">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>迭代</t>
+  </si>
+  <si>
+    <t>出栈次序</t>
+  </si>
+  <si>
+    <t>卡特兰数</t>
+  </si>
+  <si>
+    <t>生物芯片</t>
+  </si>
+  <si>
+    <t>数论</t>
   </si>
   <si>
     <t>2015年第六届</t>
@@ -209,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,13 +236,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -238,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +258,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +281,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,13 +341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -298,17 +349,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,37 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,13 +388,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,49 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,37 +532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,37 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,21 +607,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -626,9 +623,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,17 +679,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,142 +699,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,7 +1187,7 @@
   <dimension ref="A1:AU128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -1733,9 +1742,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1743,9 +1758,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1780,7 +1801,7 @@
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2046,7 +2067,7 @@
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2312,7 +2333,7 @@
     </row>
     <row r="65" spans="2:25">
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2578,7 +2599,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2844,7 +2865,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3110,7 +3131,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3159,16 +3180,16 @@
       <c r="AU114" s="1"/>
     </row>
     <row r="115" spans="2:47">
-      <c r="B115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="2"/>
+      <c r="B115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3184,7 +3205,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3217,10 +3238,10 @@
       <c r="AU115" s="1"/>
     </row>
     <row r="116" spans="2:47">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
         <v>3</v>
       </c>
@@ -3238,7 +3259,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3258,7 +3279,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3278,15 +3299,15 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
     <row r="117" spans="2:45">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
         <v>5</v>
       </c>
@@ -3505,19 +3526,19 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
       </c>
       <c r="AB119" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC119" t="s">
         <v>27</v>
       </c>
       <c r="AF119" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AG119" t="s">
         <v>27</v>
@@ -3528,22 +3549,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB120" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AC120" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF120" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AG120" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3551,28 +3572,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AC121" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AF121" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AG121" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AP121" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AQ121" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3580,22 +3601,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G122" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB122" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AC122" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF122" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AG122" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3603,10 +3624,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AF123" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3614,10 +3635,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AG124" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3625,10 +3646,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG125" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3641,7 +3662,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564"/>
+    <workbookView windowWidth="21600" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="67">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>2017年第八届</t>
+  </si>
+  <si>
+    <t>迷宫</t>
   </si>
   <si>
     <t>2018年第九届</t>
@@ -221,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -236,90 +239,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +268,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -348,8 +306,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +337,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +391,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +439,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,31 +505,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,19 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,79 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +595,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -602,21 +620,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +674,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,145 +690,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,8 +1189,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -2547,9 +2550,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -2599,7 +2608,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2865,7 +2874,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3131,7 +3140,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3181,15 +3190,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3205,7 +3214,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3259,7 +3268,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3279,7 +3288,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3299,7 +3308,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -3526,19 +3535,19 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
       </c>
       <c r="AB119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC119" t="s">
         <v>27</v>
       </c>
       <c r="AF119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG119" t="s">
         <v>27</v>
@@ -3549,22 +3558,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC120" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF120" t="s">
         <v>48</v>
       </c>
-      <c r="AF120" t="s">
-        <v>47</v>
-      </c>
       <c r="AG120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3572,28 +3581,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3601,22 +3610,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3624,10 +3633,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3635,10 +3644,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3646,10 +3655,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3662,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="78">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -124,6 +124,39 @@
   </si>
   <si>
     <t>迷宫</t>
+  </si>
+  <si>
+    <t>贪吃蛇长度</t>
+  </si>
+  <si>
+    <t>字符串+迭代</t>
+  </si>
+  <si>
+    <t>平方十位数</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>36进制</t>
+  </si>
+  <si>
+    <t>进制转换</t>
+  </si>
+  <si>
+    <t>哥德巴赫分解</t>
+  </si>
+  <si>
+    <t>迭代、素数</t>
+  </si>
+  <si>
+    <t>图书排列</t>
+  </si>
+  <si>
+    <t>数位和</t>
+  </si>
+  <si>
+    <t>迭代+i2s+s2i</t>
   </si>
   <si>
     <t>2018年第九届</t>
@@ -224,9 +257,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -238,6 +271,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -246,7 +287,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +363,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,93 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,13 +424,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,163 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,71 +615,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,7 +637,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +665,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,37 +735,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,94 +771,97 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:G83"/>
+    <sheetView tabSelected="1" topLeftCell="M64" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -2550,7 +2583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2559,6 +2592,48 @@
       </c>
       <c r="C70" t="s">
         <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O70" t="s">
+        <v>39</v>
+      </c>
+      <c r="P70" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>41</v>
+      </c>
+      <c r="R70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S70" t="s">
+        <v>43</v>
+      </c>
+      <c r="T70" t="s">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s">
+        <v>39</v>
+      </c>
+      <c r="X70" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -2608,7 +2683,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2874,7 +2949,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3140,7 +3215,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3190,15 +3265,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3214,7 +3289,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3268,7 +3343,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3288,7 +3363,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3308,7 +3383,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -3535,19 +3610,19 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
       </c>
       <c r="AB119" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AC119" t="s">
         <v>27</v>
       </c>
       <c r="AF119" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AG119" t="s">
         <v>27</v>
@@ -3558,22 +3633,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AB120" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AC120" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF120" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AG120" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3581,28 +3656,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AC121" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AF121" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AG121" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AP121" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AQ121" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3610,22 +3685,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G122" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AB122" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC122" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AF122" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AG122" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3633,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AF123" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3644,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AG124" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3655,10 +3730,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AG125" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3671,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10115"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="82">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -126,12 +126,24 @@
     <t>迷宫</t>
   </si>
   <si>
+    <t>购物单</t>
+  </si>
+  <si>
+    <t>数据处理+迭代</t>
+  </si>
+  <si>
     <t>贪吃蛇长度</t>
   </si>
   <si>
     <t>字符串+迭代</t>
   </si>
   <si>
+    <t>外星日历</t>
+  </si>
+  <si>
+    <t>取余</t>
+  </si>
+  <si>
     <t>平方十位数</t>
   </si>
   <si>
@@ -147,7 +159,7 @@
     <t>哥德巴赫分解</t>
   </si>
   <si>
-    <t>迭代、素数</t>
+    <t>迭代+素数</t>
   </si>
   <si>
     <t>图书排列</t>
@@ -257,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -279,8 +291,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,25 +344,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,53 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,15 +383,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,9 +413,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +442,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +496,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,19 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,43 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,43 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,13 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,26 +654,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +676,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,19 +707,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M64" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+    <sheetView tabSelected="1" topLeftCell="J64" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
@@ -2593,47 +2605,71 @@
       <c r="C70" t="s">
         <v>15</v>
       </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
       <c r="F70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
         <v>36</v>
       </c>
-      <c r="G70" t="s">
+      <c r="K70" t="s">
         <v>37</v>
       </c>
+      <c r="L70" t="s">
+        <v>40</v>
+      </c>
+      <c r="M70" t="s">
+        <v>41</v>
+      </c>
       <c r="N70" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O70" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P70" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q70" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R70" t="s">
+        <v>46</v>
+      </c>
+      <c r="S70" t="s">
+        <v>47</v>
+      </c>
+      <c r="T70" t="s">
+        <v>48</v>
+      </c>
+      <c r="U70" t="s">
+        <v>43</v>
+      </c>
+      <c r="V70" t="s">
         <v>42</v>
       </c>
-      <c r="S70" t="s">
+      <c r="W70" t="s">
         <v>43</v>
       </c>
-      <c r="T70" t="s">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s">
-        <v>39</v>
-      </c>
-      <c r="V70" t="s">
-        <v>38</v>
-      </c>
-      <c r="W70" t="s">
-        <v>39</v>
-      </c>
       <c r="X70" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Y70" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -2683,7 +2719,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2949,7 +2985,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3215,7 +3251,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3265,15 +3301,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3289,7 +3325,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3343,7 +3379,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3363,7 +3399,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3383,7 +3419,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -3610,19 +3646,19 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
       </c>
       <c r="AB119" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AC119" t="s">
         <v>27</v>
       </c>
       <c r="AF119" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AG119" t="s">
         <v>27</v>
@@ -3633,22 +3669,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G120" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB120" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AC120" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AF120" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AG120" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3656,28 +3692,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC121" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AF121" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AG121" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AP121" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AQ121" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3685,22 +3721,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G122" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AB122" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AC122" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AF122" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AG122" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3708,10 +3744,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AF123" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3719,10 +3755,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AG124" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3730,10 +3766,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AG125" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3746,7 +3782,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564"/>
+    <workbookView windowWidth="21600" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="87">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>迭代+i2s+s2i</t>
+  </si>
+  <si>
+    <t>9数算式</t>
+  </si>
+  <si>
+    <t>全排列+check</t>
+  </si>
+  <si>
+    <t>纸牌三角形</t>
+  </si>
+  <si>
+    <t>兴趣小组</t>
+  </si>
+  <si>
+    <t>文件读取+集合运算</t>
   </si>
   <si>
     <t>2018年第九届</t>
@@ -269,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -283,24 +298,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,8 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,39 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +367,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -405,9 +389,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,13 +437,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,13 +451,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,73 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,49 +577,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +642,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -647,15 +677,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -665,26 +686,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,17 +734,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,13 +1249,13 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J64" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7777777777778" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="17.7777777777778" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="13.7777777777778" customWidth="1"/>
+    <col min="1" max="16384" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25">
@@ -2672,9 +2687,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s">
+        <v>53</v>
+      </c>
+      <c r="K71" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" t="s">
+        <v>54</v>
+      </c>
+      <c r="M71" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -2719,7 +2752,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2985,7 +3018,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3251,7 +3284,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3301,15 +3334,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3325,7 +3358,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3379,7 +3412,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3399,7 +3432,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3419,7 +3452,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -3646,19 +3679,19 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
       </c>
       <c r="AB119" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC119" t="s">
         <v>27</v>
       </c>
       <c r="AF119" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG119" t="s">
         <v>27</v>
@@ -3669,22 +3702,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AB120" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AC120" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF120" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AG120" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3692,28 +3725,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AC121" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF121" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AG121" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP121" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ121" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3721,22 +3754,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG122" t="s">
         <v>72</v>
-      </c>
-      <c r="G122" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB122" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF122" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG122" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3744,10 +3777,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF123" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3755,10 +3788,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AG124" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3766,10 +3799,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AG125" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3782,7 +3815,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9564"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="96">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -171,6 +171,24 @@
     <t>迭代+i2s+s2i</t>
   </si>
   <si>
+    <t>跳蚱蜢</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>等差素数列</t>
+  </si>
+  <si>
+    <t>素数筛+check</t>
+  </si>
+  <si>
+    <t>兴趣小组</t>
+  </si>
+  <si>
+    <t>文件读取+集合运算</t>
+  </si>
+  <si>
     <t>9数算式</t>
   </si>
   <si>
@@ -180,10 +198,19 @@
     <t>纸牌三角形</t>
   </si>
   <si>
-    <t>兴趣小组</t>
-  </si>
-  <si>
-    <t>文件读取+集合运算</t>
+    <t>生命游戏</t>
+  </si>
+  <si>
+    <t>模拟+找规律</t>
+  </si>
+  <si>
+    <t>数字划分</t>
+  </si>
+  <si>
+    <t>DFS/组合数+check</t>
+  </si>
+  <si>
+    <t>磁砖样式</t>
   </si>
   <si>
     <t>2018年第九届</t>
@@ -284,9 +311,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -299,6 +326,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -306,21 +340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,8 +355,84 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,7 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,76 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,13 +478,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,19 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,85 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,13 +586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +640,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,32 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -710,17 +711,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +739,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,8 +1276,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="P64" workbookViewId="0">
+      <selection activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7777777777778" defaultRowHeight="14.4"/>
@@ -2687,27 +2714,69 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:25">
       <c r="A71">
         <v>2</v>
       </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s">
+        <v>56</v>
+      </c>
       <c r="H71" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K71" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M71" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="N71" t="s">
+        <v>60</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="R71" t="s">
+        <v>62</v>
+      </c>
+      <c r="S71" t="s">
+        <v>63</v>
+      </c>
+      <c r="T71" t="s">
+        <v>64</v>
+      </c>
+      <c r="V71" t="s">
+        <v>60</v>
+      </c>
+      <c r="X71" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -2752,7 +2821,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3018,7 +3087,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3284,7 +3353,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3334,15 +3403,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3358,7 +3427,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3412,7 +3481,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3432,7 +3501,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3452,7 +3521,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -3679,19 +3748,19 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
       </c>
       <c r="AB119" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AC119" t="s">
         <v>27</v>
       </c>
       <c r="AF119" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AG119" t="s">
         <v>27</v>
@@ -3702,22 +3771,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G120" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AB120" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AC120" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AF120" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AG120" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3725,28 +3794,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AC121" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AF121" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AG121" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AP121" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AQ121" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3754,22 +3823,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G122" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AB122" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AC122" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF122" t="s">
         <v>80</v>
       </c>
-      <c r="AF122" t="s">
-        <v>71</v>
-      </c>
       <c r="AG122" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3777,10 +3846,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AF123" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3788,10 +3857,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AG124" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3799,10 +3868,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AG125" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3815,7 +3884,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21600" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="109">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -204,18 +204,60 @@
     <t>模拟+找规律</t>
   </si>
   <si>
+    <t>磁砖样式</t>
+  </si>
+  <si>
     <t>数字划分</t>
   </si>
   <si>
     <t>DFS/组合数+check</t>
   </si>
   <si>
-    <t>磁砖样式</t>
+    <t>魔方状态</t>
+  </si>
+  <si>
+    <t>Burnside引理</t>
+  </si>
+  <si>
+    <t>承压计算</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>方格分割</t>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+  </si>
+  <si>
+    <t>最大公共子串</t>
+  </si>
+  <si>
+    <t>正则问题</t>
+  </si>
+  <si>
+    <t>Excel地址</t>
   </si>
   <si>
     <t>2018年第九届</t>
   </si>
   <si>
+    <t>哪天返回</t>
+  </si>
+  <si>
+    <t>猴子分香蕉</t>
+  </si>
+  <si>
+    <t>迭代+check</t>
+  </si>
+  <si>
+    <t>字母阵列</t>
+  </si>
+  <si>
+    <t>数据处理+遍历+check</t>
+  </si>
+  <si>
     <t>2019年第十届</t>
   </si>
   <si>
@@ -250,9 +292,6 @@
   </si>
   <si>
     <t>寻找 2020</t>
-  </si>
-  <si>
-    <t>迭代+check</t>
   </si>
   <si>
     <t>分配口罩</t>
@@ -311,9 +350,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -334,59 +373,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +410,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +432,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,8 +492,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +535,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,19 +613,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,91 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,31 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +708,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -722,24 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -777,145 +816,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1276,13 +1315,13 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P64" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+    <sheetView tabSelected="1" topLeftCell="J73" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7777777777778" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="17.7777777777778" customWidth="1"/>
+    <col min="1" max="16384" width="20.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25">
@@ -2760,48 +2799,105 @@
       <c r="O71" t="s">
         <v>61</v>
       </c>
+      <c r="P71" t="s">
+        <v>62</v>
+      </c>
       <c r="R71" t="s">
+        <v>63</v>
+      </c>
+      <c r="S71" t="s">
+        <v>64</v>
+      </c>
+      <c r="T71" t="s">
         <v>62</v>
-      </c>
-      <c r="S71" t="s">
-        <v>63</v>
-      </c>
-      <c r="T71" t="s">
-        <v>64</v>
       </c>
       <c r="V71" t="s">
         <v>60</v>
       </c>
+      <c r="W71" t="s">
+        <v>61</v>
+      </c>
       <c r="X71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="s">
+        <v>66</v>
+      </c>
+      <c r="J72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" t="s">
+        <v>59</v>
+      </c>
+      <c r="M72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>65</v>
+      </c>
+      <c r="K73" t="s">
+        <v>66</v>
+      </c>
+      <c r="L73" t="s">
+        <v>67</v>
+      </c>
+      <c r="M73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="L74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="L75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -2821,7 +2917,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3035,19 +3131,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="L86" t="s">
+        <v>75</v>
+      </c>
+      <c r="M86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="L87" t="s">
+        <v>76</v>
+      </c>
+      <c r="M87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>3</v>
+      </c>
+      <c r="L88" t="s">
+        <v>78</v>
+      </c>
+      <c r="M88" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -3087,7 +3201,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3353,7 +3467,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3403,15 +3517,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3427,7 +3541,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3481,7 +3595,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3501,7 +3615,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3521,7 +3635,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -3748,19 +3862,19 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s">
         <v>27</v>
       </c>
       <c r="AB119" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AC119" t="s">
         <v>27</v>
       </c>
       <c r="AF119" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AG119" t="s">
         <v>27</v>
@@ -3771,22 +3885,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G120" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AB120" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC120" t="s">
         <v>77</v>
       </c>
-      <c r="AC120" t="s">
-        <v>78</v>
-      </c>
       <c r="AF120" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG120" t="s">
         <v>77</v>
-      </c>
-      <c r="AG120" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3794,28 +3908,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AC121" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AF121" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AG121" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AP121" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AQ121" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3823,22 +3937,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G122" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AB122" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="AC122" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AF122" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AG122" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3846,10 +3960,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="AF123" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3857,10 +3971,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AG124" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3868,10 +3982,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AG125" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3884,7 +3998,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10115"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="119">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -96,24 +96,60 @@
     <t>2014年第五届</t>
   </si>
   <si>
+    <t>校赛</t>
+  </si>
+  <si>
     <t>年龄巧合</t>
   </si>
   <si>
     <t>迭代</t>
   </si>
   <si>
+    <t>圆周率pai</t>
+  </si>
+  <si>
+    <t>调和级数</t>
+  </si>
+  <si>
     <t>出栈次序</t>
   </si>
   <si>
     <t>卡特兰数</t>
   </si>
   <si>
+    <t>x的x次幂</t>
+  </si>
+  <si>
+    <t>二分</t>
+  </si>
+  <si>
+    <t>数字排列</t>
+  </si>
+  <si>
+    <t>全排列+check</t>
+  </si>
+  <si>
     <t>生物芯片</t>
   </si>
   <si>
     <t>数论</t>
   </si>
   <si>
+    <t>勾股定理</t>
+  </si>
+  <si>
+    <t>迭代+check</t>
+  </si>
+  <si>
+    <t>数独游戏</t>
+  </si>
+  <si>
+    <t>DFS+check</t>
+  </si>
+  <si>
+    <t>派遣敢死队</t>
+  </si>
+  <si>
     <t>2015年第六届</t>
   </si>
   <si>
@@ -192,9 +228,6 @@
     <t>9数算式</t>
   </si>
   <si>
-    <t>全排列+check</t>
-  </si>
-  <si>
     <t>纸牌三角形</t>
   </si>
   <si>
@@ -247,9 +280,6 @@
   </si>
   <si>
     <t>猴子分香蕉</t>
-  </si>
-  <si>
-    <t>迭代+check</t>
   </si>
   <si>
     <t>字母阵列</t>
@@ -351,9 +381,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -365,14 +395,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,9 +440,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,15 +462,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,30 +479,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,7 +500,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,15 +532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +559,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +643,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +691,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,133 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,39 +738,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,11 +767,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,6 +789,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -808,6 +812,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -816,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -828,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J73" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="14.4"/>
@@ -1672,9 +1702,9 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:37">
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1688,7 +1718,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1701,8 +1731,22 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="2:25">
+      <c r="Z18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="2:37">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1735,8 +1779,24 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="2:25">
+      <c r="Z19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="2:37">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1785,8 +1845,32 @@
         <v>7</v>
       </c>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="2:25">
+      <c r="Z20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="2:37">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -1857,6 +1941,42 @@
         <v>8</v>
       </c>
       <c r="Y21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1865,52 +1985,97 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23">
         <v>2</v>
       </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25">
         <v>4</v>
       </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
       <c r="P25" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -1930,7 +2095,7 @@
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2196,7 +2361,7 @@
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2462,7 +2627,7 @@
     </row>
     <row r="65" spans="2:25">
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2681,76 +2846,76 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
         <v>15</v>
       </c>
       <c r="J70" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L70" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M70" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N70" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="O70" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="P70" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q70" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="R70" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="S70" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="T70" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="U70" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="V70" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W70" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="X70" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Y70" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -2758,70 +2923,70 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H71" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K71" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="L71" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M71" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N71" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O71" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P71" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="R71" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="S71" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="T71" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="V71" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="W71" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="X71" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Y71" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2829,22 +2994,22 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L72" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M72" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2852,22 +3017,22 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K73" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L73" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M73" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -2875,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="L74" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -2883,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="L75" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -2891,13 +3056,13 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="L76" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -2917,7 +3082,7 @@
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3136,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3147,10 +3312,10 @@
         <v>2</v>
       </c>
       <c r="L87" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M87" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3158,10 +3323,10 @@
         <v>3</v>
       </c>
       <c r="L88" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M88" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -3201,7 +3366,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3467,7 +3632,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3517,15 +3682,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3541,7 +3706,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3595,7 +3760,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3615,7 +3780,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3635,7 +3800,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -3862,22 +4027,22 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB119" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AC119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF119" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AG119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -3885,22 +4050,22 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G120" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB120" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AC120" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF120" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AG120" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -3908,28 +4073,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AC121" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AF121" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG121" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AP121" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AQ121" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -3937,22 +4102,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G122" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB122" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AC122" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AF122" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AG122" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -3960,10 +4125,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AF123" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -3971,10 +4136,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AG124" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -3982,10 +4147,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="AG125" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -3998,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -4007,7 +4172,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="175">
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:Y2"/>
@@ -4030,10 +4195,13 @@
     <mergeCell ref="B17:Y17"/>
     <mergeCell ref="B18:M18"/>
     <mergeCell ref="N18:Y18"/>
+    <mergeCell ref="Z18:AK18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:S19"/>
     <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="Z19:AE19"/>
+    <mergeCell ref="AF19:AK19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -4046,6 +4214,12 @@
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AK20"/>
     <mergeCell ref="B33:Y33"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="N34:Y34"/>

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="120">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -69,6 +69,9 @@
     <t>颠倒的价牌</t>
   </si>
   <si>
+    <t>模拟</t>
+  </si>
+  <si>
     <t>前缀判断</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
     <t>年龄巧合</t>
   </si>
   <si>
-    <t>迭代</t>
-  </si>
-  <si>
     <t>圆周率pai</t>
   </si>
   <si>
@@ -138,7 +138,7 @@
     <t>勾股定理</t>
   </si>
   <si>
-    <t>迭代+check</t>
+    <t>枚举+check</t>
   </si>
   <si>
     <t>数独游戏</t>
@@ -165,13 +165,13 @@
     <t>购物单</t>
   </si>
   <si>
-    <t>数据处理+迭代</t>
+    <t>数据处理+枚举</t>
   </si>
   <si>
     <t>贪吃蛇长度</t>
   </si>
   <si>
-    <t>字符串+迭代</t>
+    <t>字符串+枚举</t>
   </si>
   <si>
     <t>外星日历</t>
@@ -195,7 +195,7 @@
     <t>哥德巴赫分解</t>
   </si>
   <si>
-    <t>迭代+素数</t>
+    <t>枚举+素数</t>
   </si>
   <si>
     <t>图书排列</t>
@@ -204,7 +204,7 @@
     <t>数位和</t>
   </si>
   <si>
-    <t>迭代+i2s+s2i</t>
+    <t>枚举+i2s+s2i</t>
   </si>
   <si>
     <t>跳蚱蜢</t>
@@ -273,6 +273,9 @@
     <t>Excel地址</t>
   </si>
   <si>
+    <t>图形排版</t>
+  </si>
+  <si>
     <t>2018年第九届</t>
   </si>
   <si>
@@ -336,7 +339,7 @@
     <t>跑步锻炼</t>
   </si>
   <si>
-    <t>日期迭代</t>
+    <t>日期枚举</t>
   </si>
   <si>
     <t>阶乘约数</t>
@@ -363,13 +366,13 @@
     <t>成绩统计</t>
   </si>
   <si>
-    <t>迭代计算</t>
+    <t>枚举计算</t>
   </si>
   <si>
     <t>单词分析</t>
   </si>
   <si>
-    <t>迭代统计</t>
+    <t>枚举统计</t>
   </si>
   <si>
     <t>序列计数</t>
@@ -395,14 +398,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,23 +419,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,9 +428,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,9 +450,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,8 +496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,7 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,29 +528,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -547,7 +550,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,19 +688,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,151 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,8 +771,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,49 +836,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,10 +849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,133 +861,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,8 +1348,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="14.4"/>
@@ -1617,7 +1620,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1625,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1633,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1641,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1652,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1660,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1668,15 +1671,15 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="18" spans="2:37">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1985,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1999,13 +2002,13 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P23" t="s">
         <v>31</v>
@@ -3075,14 +3078,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>10</v>
       </c>
+      <c r="F79" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="81" spans="2:25">
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3301,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M86" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3312,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="L87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M87" t="s">
         <v>40</v>
@@ -3323,10 +3329,10 @@
         <v>3</v>
       </c>
       <c r="L88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -3366,7 +3372,7 @@
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3632,7 +3638,7 @@
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3682,15 +3688,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3706,7 +3712,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3760,7 +3766,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3780,7 +3786,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3800,7 +3806,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -4027,22 +4033,22 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G119" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AB119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC119" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AF119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG119" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -4050,19 +4056,19 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB120" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC120" t="s">
         <v>40</v>
       </c>
       <c r="AF120" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG120" t="s">
         <v>40</v>
@@ -4073,28 +4079,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF121" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG121" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AP121" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AQ121" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -4102,22 +4108,22 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB122" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -4125,10 +4131,10 @@
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF123" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:33">
@@ -4136,10 +4142,10 @@
         <v>6</v>
       </c>
       <c r="AF124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:33">
@@ -4147,10 +4153,10 @@
         <v>7</v>
       </c>
       <c r="AF125" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -4163,7 +4169,7 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -4361,7 +4367,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4378,7 +4384,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="144">
   <si>
     <t>2013年第四届</t>
   </si>
@@ -294,6 +294,63 @@
     <t>2019年第十届</t>
   </si>
   <si>
+    <t>平方和</t>
+  </si>
+  <si>
+    <t>组队</t>
+  </si>
+  <si>
+    <t>数列求值</t>
+  </si>
+  <si>
+    <t>迭代</t>
+  </si>
+  <si>
+    <t>年号字串</t>
+  </si>
+  <si>
+    <t>最大降雨量</t>
+  </si>
+  <si>
+    <t>贪心</t>
+  </si>
+  <si>
+    <t>数的分解</t>
+  </si>
+  <si>
+    <t>RSA解密</t>
+  </si>
+  <si>
+    <t>完全二叉树的权值</t>
+  </si>
+  <si>
+    <t>二叉树层序遍历</t>
+  </si>
+  <si>
+    <t>特别数的和</t>
+  </si>
+  <si>
+    <t>外卖店优先级</t>
+  </si>
+  <si>
+    <t>修改数组</t>
+  </si>
+  <si>
+    <t>等差数列</t>
+  </si>
+  <si>
+    <t>糖果</t>
+  </si>
+  <si>
+    <t>后缀表达式</t>
+  </si>
+  <si>
+    <t>组合数问题</t>
+  </si>
+  <si>
+    <t>灵能传输</t>
+  </si>
+  <si>
     <t>2020年第十一届</t>
   </si>
   <si>
@@ -363,19 +420,34 @@
     <t>排序</t>
   </si>
   <si>
+    <t>逆序对</t>
+  </si>
+  <si>
     <t>成绩统计</t>
   </si>
   <si>
-    <t>枚举计算</t>
+    <t>文件读取+计算</t>
   </si>
   <si>
     <t>单词分析</t>
   </si>
   <si>
-    <t>枚举统计</t>
+    <t>计数器</t>
+  </si>
+  <si>
+    <t>数字三角形</t>
   </si>
   <si>
     <t>序列计数</t>
+  </si>
+  <si>
+    <t>子串分值和</t>
+  </si>
+  <si>
+    <t>平面切分</t>
+  </si>
+  <si>
+    <t>装饰珠</t>
   </si>
 </sst>
 </file>
@@ -383,10 +455,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -404,8 +476,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,18 +536,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,16 +559,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,77 +599,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,49 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,13 +658,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,19 +700,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,13 +736,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,25 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,37 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,9 +818,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,22 +861,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,32 +907,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -849,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,16 +933,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,115 +951,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="14.4"/>
@@ -3586,59 +3658,161 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>10</v>
       </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="114" spans="2:47">
       <c r="B114" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3688,15 +3862,15 @@
     </row>
     <row r="115" spans="2:47">
       <c r="B115" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3712,7 +3886,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -3766,7 +3940,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
@@ -3786,7 +3960,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1" t="s">
@@ -3806,7 +3980,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
@@ -4033,22 +4207,22 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
       <c r="AB119" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AC119" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AF119" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AG119" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -4056,19 +4230,19 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G120" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AB120" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AC120" t="s">
         <v>40</v>
       </c>
       <c r="AF120" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AG120" t="s">
         <v>40</v>
@@ -4079,28 +4253,28 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="AB121" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AC121" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AF121" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="AG121" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="AP121" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="AQ121" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:33">
@@ -4108,73 +4282,121 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="G122" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB122" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AC122" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AF122" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AG122" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:32">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="AB123" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>134</v>
       </c>
       <c r="AF123" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:33">
       <c r="A124">
         <v>6</v>
       </c>
+      <c r="AB124" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>136</v>
+      </c>
       <c r="AF124" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="AG124" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:33">
       <c r="A125">
         <v>7</v>
       </c>
+      <c r="AB125" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>138</v>
+      </c>
       <c r="AF125" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AG125" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="AB126" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127">
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128">
         <v>10</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/BlueBridgeCup/Subject/真题分析.xlsx
+++ b/BlueBridgeCup/Subject/真题分析.xlsx
@@ -476,6 +476,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,15 +491,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +529,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,14 +556,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,6 +591,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -575,39 +606,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,7 +622,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,19 +700,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,43 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,73 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +760,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,6 +843,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -875,36 +905,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -921,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,130 +936,130 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="14.4"/>
